--- a/Project_related_material/Survey_question.xlsx
+++ b/Project_related_material/Survey_question.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Downloads/Internship_Social_Research_Center/ETC5543_Internship_Project/Project_related_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F398FBC3-50F8-6445-9954-9FBD85F641A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFC4916-0C84-D34E-BEA6-F2CD634719F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="-21100" windowWidth="24220" windowHeight="21100" xr2:uid="{5943BDDB-ED93-E846-BE3D-DAD7E7BA4B5F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{5943BDDB-ED93-E846-BE3D-DAD7E7BA4B5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="144">
   <si>
     <t>Question</t>
   </si>
@@ -463,6 +463,21 @@
   </si>
   <si>
     <t>So that we can contact you about future studies, can I/we please have your name, confirm the best number to contact you on and an email address?</t>
+  </si>
+  <si>
+    <t>Midpoint</t>
+  </si>
+  <si>
+    <t>Midpoint : Odd number answer scale,
+ this type of questions likely to have midpoint</t>
+  </si>
+  <si>
+    <t>Midpoint :  this type of questions likely to have midpoint</t>
+  </si>
+  <si>
+    <t>Extreme
+Large
+# of hour</t>
   </si>
 </sst>
 </file>
@@ -554,34 +569,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -900,9 +915,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1472E0CD-8E26-0240-82E8-7B27A32BF277}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K34" sqref="K34:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -911,7 +926,7 @@
     <col min="4" max="4" width="84.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -936,7 +951,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="5">
@@ -956,7 +971,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="8"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -974,7 +989,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="8"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -995,7 +1010,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="8"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -1016,7 +1031,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="8"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -1034,7 +1049,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="8"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="5">
         <v>6</v>
       </c>
@@ -1052,7 +1067,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="51">
-      <c r="A9" s="8"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="5">
         <v>7</v>
       </c>
@@ -1070,7 +1085,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="6">
@@ -1090,7 +1105,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="7"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="6">
         <v>9</v>
       </c>
@@ -1108,7 +1123,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="7"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="6">
         <v>10</v>
       </c>
@@ -1129,7 +1144,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="7"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6">
         <v>11</v>
       </c>
@@ -1150,7 +1165,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="7"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="6">
         <v>12</v>
       </c>
@@ -1169,7 +1184,7 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="7"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6">
         <v>13</v>
       </c>
@@ -1188,9 +1203,12 @@
       <c r="I15" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="J15" s="12" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="7"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="6">
         <v>14</v>
       </c>
@@ -1204,9 +1222,10 @@
         <v>14</v>
       </c>
       <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="7"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="16"/>
       <c r="B17" s="6">
         <v>15</v>
       </c>
@@ -1220,9 +1239,10 @@
         <v>14</v>
       </c>
       <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="7"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="16"/>
       <c r="B18" s="6">
         <v>16</v>
       </c>
@@ -1236,9 +1256,10 @@
         <v>14</v>
       </c>
       <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="7"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="16"/>
       <c r="B19" s="6">
         <v>17</v>
       </c>
@@ -1252,9 +1273,10 @@
         <v>14</v>
       </c>
       <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="7"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="16"/>
       <c r="B20" s="6">
         <v>18</v>
       </c>
@@ -1268,12 +1290,13 @@
         <v>14</v>
       </c>
       <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="7">
         <v>19</v>
       </c>
       <c r="C21" t="s">
@@ -1289,9 +1312,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:11">
       <c r="A22" s="13"/>
-      <c r="B22" s="12">
+      <c r="B22" s="7">
         <v>20</v>
       </c>
       <c r="C22" t="s">
@@ -1307,9 +1330,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:11">
       <c r="A23" s="13"/>
-      <c r="B23" s="12">
+      <c r="B23" s="7">
         <v>21</v>
       </c>
       <c r="C23" t="s">
@@ -1325,9 +1348,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11">
       <c r="A24" s="13"/>
-      <c r="B24" s="12">
+      <c r="B24" s="7">
         <v>22</v>
       </c>
       <c r="C24" t="s">
@@ -1345,10 +1368,13 @@
       <c r="I24" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="13"/>
-      <c r="B25" s="12">
+      <c r="B25" s="7">
         <v>23</v>
       </c>
       <c r="D25" t="s">
@@ -1361,10 +1387,11 @@
         <v>14</v>
       </c>
       <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="13"/>
-      <c r="B26" s="12">
+      <c r="B26" s="7">
         <v>24</v>
       </c>
       <c r="D26" t="s">
@@ -1377,10 +1404,11 @@
         <v>14</v>
       </c>
       <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="13"/>
-      <c r="B27" s="12">
+      <c r="B27" s="7">
         <v>25</v>
       </c>
       <c r="D27" t="s">
@@ -1393,10 +1421,11 @@
         <v>14</v>
       </c>
       <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="13"/>
-      <c r="B28" s="12">
+      <c r="B28" s="7">
         <v>26</v>
       </c>
       <c r="C28" t="s">
@@ -1411,13 +1440,19 @@
       <c r="F28" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="13"/>
-      <c r="B29" s="12">
+      <c r="B29" s="7">
         <v>27</v>
       </c>
       <c r="D29" t="s">
@@ -1430,10 +1465,12 @@
         <v>14</v>
       </c>
       <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="13"/>
-      <c r="B30" s="12">
+      <c r="B30" s="7">
         <v>28</v>
       </c>
       <c r="D30" t="s">
@@ -1446,10 +1483,12 @@
         <v>14</v>
       </c>
       <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="13"/>
-      <c r="B31" s="12">
+      <c r="B31" s="7">
         <v>29</v>
       </c>
       <c r="D31" t="s">
@@ -1462,10 +1501,12 @@
         <v>14</v>
       </c>
       <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="13"/>
-      <c r="B32" s="12">
+      <c r="B32" s="7">
         <v>30</v>
       </c>
       <c r="D32" t="s">
@@ -1478,10 +1519,12 @@
         <v>14</v>
       </c>
       <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="13"/>
-      <c r="B33" s="12">
+      <c r="B33" s="7">
         <v>31</v>
       </c>
       <c r="D33" t="s">
@@ -1494,10 +1537,12 @@
         <v>14</v>
       </c>
       <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="13"/>
-      <c r="B34" s="12">
+      <c r="B34" s="7">
         <v>32</v>
       </c>
       <c r="C34" t="s">
@@ -1512,7 +1557,7 @@
       <c r="F34" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="12" t="s">
         <v>81</v>
       </c>
       <c r="K34" s="10" t="s">
@@ -1521,7 +1566,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="13"/>
-      <c r="B35" s="12">
+      <c r="B35" s="7">
         <v>33</v>
       </c>
       <c r="C35" t="s">
@@ -1544,7 +1589,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="13"/>
-      <c r="B36" s="12">
+      <c r="B36" s="7">
         <v>34</v>
       </c>
       <c r="C36" t="s">
@@ -1567,7 +1612,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="13"/>
-      <c r="B37" s="12">
+      <c r="B37" s="7">
         <v>35</v>
       </c>
       <c r="C37" t="s">
@@ -1589,7 +1634,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="13"/>
-      <c r="B38" s="12">
+      <c r="B38" s="7">
         <v>36</v>
       </c>
       <c r="C38" t="s">
@@ -1609,10 +1654,10 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="8">
         <v>37</v>
       </c>
       <c r="C39" t="s">
@@ -1630,7 +1675,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="15"/>
-      <c r="B40" s="14">
+      <c r="B40" s="8">
         <v>38</v>
       </c>
       <c r="C40" t="s">
@@ -1648,7 +1693,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="15"/>
-      <c r="B41" s="14">
+      <c r="B41" s="8">
         <v>39</v>
       </c>
       <c r="C41" t="s">
@@ -1666,7 +1711,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="15"/>
-      <c r="B42" s="14">
+      <c r="B42" s="8">
         <v>40</v>
       </c>
       <c r="C42" t="s">
@@ -1684,7 +1729,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="15"/>
-      <c r="B43" s="14">
+      <c r="B43" s="8">
         <v>41</v>
       </c>
       <c r="C43" t="s">
@@ -1699,13 +1744,13 @@
       <c r="F43" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="15"/>
-      <c r="B44" s="14">
+      <c r="B44" s="8">
         <v>42</v>
       </c>
       <c r="D44" t="s">
@@ -1721,7 +1766,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="15"/>
-      <c r="B45" s="14">
+      <c r="B45" s="8">
         <v>43</v>
       </c>
       <c r="D45" t="s">
@@ -1737,7 +1782,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="15"/>
-      <c r="B46" s="14">
+      <c r="B46" s="8">
         <v>44</v>
       </c>
       <c r="D46" t="s">
@@ -1753,7 +1798,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="15"/>
-      <c r="B47" s="14">
+      <c r="B47" s="8">
         <v>45</v>
       </c>
       <c r="D47" t="s">
@@ -1768,10 +1813,10 @@
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="9">
         <v>46</v>
       </c>
       <c r="C48" t="s">
@@ -1794,8 +1839,8 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="18"/>
-      <c r="B49" s="17">
+      <c r="A49" s="11"/>
+      <c r="B49" s="9">
         <v>47</v>
       </c>
       <c r="C49" t="s">
@@ -1816,8 +1861,8 @@
       <c r="I49" s="10"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="18"/>
-      <c r="B50" s="17">
+      <c r="A50" s="11"/>
+      <c r="B50" s="9">
         <v>48</v>
       </c>
       <c r="C50" t="s">
@@ -1838,8 +1883,8 @@
       <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="18"/>
-      <c r="B51" s="17">
+      <c r="A51" s="11"/>
+      <c r="B51" s="9">
         <v>49</v>
       </c>
       <c r="C51" t="s">
@@ -1860,8 +1905,8 @@
       <c r="I51" s="10"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="18"/>
-      <c r="B52" s="17">
+      <c r="A52" s="11"/>
+      <c r="B52" s="9">
         <v>50</v>
       </c>
       <c r="C52" t="s">
@@ -1878,8 +1923,8 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="18"/>
-      <c r="B53" s="17">
+      <c r="A53" s="11"/>
+      <c r="B53" s="9">
         <v>51</v>
       </c>
       <c r="C53" t="s">
@@ -1896,8 +1941,8 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="18"/>
-      <c r="B54" s="17">
+      <c r="A54" s="11"/>
+      <c r="B54" s="9">
         <v>52</v>
       </c>
       <c r="C54" t="s">
@@ -1914,8 +1959,8 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="18"/>
-      <c r="B55" s="17">
+      <c r="A55" s="11"/>
+      <c r="B55" s="9">
         <v>53</v>
       </c>
       <c r="C55" t="s">
@@ -1932,8 +1977,8 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="18"/>
-      <c r="B56" s="17">
+      <c r="A56" s="11"/>
+      <c r="B56" s="9">
         <v>54</v>
       </c>
       <c r="C56" t="s">
@@ -1950,8 +1995,8 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="18"/>
-      <c r="B57" s="17">
+      <c r="A57" s="11"/>
+      <c r="B57" s="9">
         <v>55</v>
       </c>
       <c r="C57" t="s">
@@ -1968,8 +2013,8 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="18"/>
-      <c r="B58" s="17">
+      <c r="A58" s="11"/>
+      <c r="B58" s="9">
         <v>56</v>
       </c>
       <c r="C58" t="s">
@@ -1989,8 +2034,8 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="18"/>
-      <c r="B59" s="17">
+      <c r="A59" s="11"/>
+      <c r="B59" s="9">
         <v>57</v>
       </c>
       <c r="C59" t="s">
@@ -2010,8 +2055,8 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="18"/>
-      <c r="B60" s="17">
+      <c r="A60" s="11"/>
+      <c r="B60" s="9">
         <v>58</v>
       </c>
       <c r="C60" t="s">
@@ -2028,8 +2073,8 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="18"/>
-      <c r="B61" s="17">
+      <c r="A61" s="11"/>
+      <c r="B61" s="9">
         <v>59</v>
       </c>
       <c r="C61" t="s">
@@ -2049,8 +2094,8 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="18"/>
-      <c r="B62" s="17">
+      <c r="A62" s="11"/>
+      <c r="B62" s="9">
         <v>60</v>
       </c>
       <c r="C62" t="s">
@@ -2070,8 +2115,8 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="18"/>
-      <c r="B63" s="17">
+      <c r="A63" s="11"/>
+      <c r="B63" s="9">
         <v>61</v>
       </c>
       <c r="C63" t="s">
@@ -2286,21 +2331,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="I28:I33"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="J28:J33"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="K28:K33"/>
     <mergeCell ref="I48:I51"/>
     <mergeCell ref="A48:A63"/>
     <mergeCell ref="I34:I36"/>
     <mergeCell ref="J36:J37"/>
     <mergeCell ref="A21:A38"/>
     <mergeCell ref="I43:I47"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I28:I33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project_related_material/Survey_question.xlsx
+++ b/Project_related_material/Survey_question.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Downloads/Internship_Social_Research_Center/ETC5543_Internship_Project/Project_related_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFC4916-0C84-D34E-BEA6-F2CD634719F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C1342-1C63-724E-872C-3E837FC691DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{5943BDDB-ED93-E846-BE3D-DAD7E7BA4B5F}"/>
+    <workbookView xWindow="34560" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{5943BDDB-ED93-E846-BE3D-DAD7E7BA4B5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="145">
   <si>
     <t>Question</t>
   </si>
@@ -478,6 +478,11 @@
     <t>Extreme
 Large
 # of hour</t>
+  </si>
+  <si>
+    <t>Logical approach
+Unlikely to have more option 6 i.e. Multiple of 20+ hour per week 
+Also plus # hour of exercise (ACTIVITY)</t>
   </si>
 </sst>
 </file>
@@ -913,11 +918,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1472E0CD-8E26-0240-82E8-7B27A32BF277}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34:K36"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L28" sqref="L28:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -928,6 +933,7 @@
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.33203125" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1224,7 +1230,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="16"/>
       <c r="B17" s="6">
         <v>15</v>
@@ -1241,7 +1247,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="16"/>
       <c r="B18" s="6">
         <v>16</v>
@@ -1258,7 +1264,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="16"/>
       <c r="B19" s="6">
         <v>17</v>
@@ -1275,7 +1281,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="16"/>
       <c r="B20" s="6">
         <v>18</v>
@@ -1292,7 +1298,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" s="13" t="s">
         <v>82</v>
       </c>
@@ -1312,7 +1318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" s="13"/>
       <c r="B22" s="7">
         <v>20</v>
@@ -1330,7 +1336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" s="13"/>
       <c r="B23" s="7">
         <v>21</v>
@@ -1348,7 +1354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" s="13"/>
       <c r="B24" s="7">
         <v>22</v>
@@ -1372,7 +1378,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" s="13"/>
       <c r="B25" s="7">
         <v>23</v>
@@ -1389,7 +1395,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="13"/>
       <c r="B26" s="7">
         <v>24</v>
@@ -1406,7 +1412,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" s="13"/>
       <c r="B27" s="7">
         <v>25</v>
@@ -1423,7 +1429,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" s="13"/>
       <c r="B28" s="7">
         <v>26</v>
@@ -1449,8 +1455,11 @@
       <c r="K28" s="12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="13"/>
       <c r="B29" s="7">
         <v>27</v>
@@ -1467,8 +1476,9 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="13"/>
       <c r="B30" s="7">
         <v>28</v>
@@ -1485,8 +1495,9 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="13"/>
       <c r="B31" s="7">
         <v>29</v>
@@ -1503,8 +1514,9 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="13"/>
       <c r="B32" s="7">
         <v>30</v>
@@ -1521,8 +1533,9 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="13"/>
       <c r="B33" s="7">
         <v>31</v>
@@ -1539,8 +1552,9 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="13"/>
       <c r="B34" s="7">
         <v>32</v>
@@ -1564,7 +1578,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:12">
       <c r="A35" s="13"/>
       <c r="B35" s="7">
         <v>33</v>
@@ -1587,7 +1601,7 @@
       <c r="I35" s="10"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:12">
       <c r="A36" s="13"/>
       <c r="B36" s="7">
         <v>34</v>
@@ -1610,7 +1624,7 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12">
       <c r="A37" s="13"/>
       <c r="B37" s="7">
         <v>35</v>
@@ -1632,7 +1646,7 @@
       </c>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:12">
       <c r="A38" s="13"/>
       <c r="B38" s="7">
         <v>36</v>
@@ -1653,7 +1667,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39" s="14" t="s">
         <v>99</v>
       </c>
@@ -1673,7 +1687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12">
       <c r="A40" s="15"/>
       <c r="B40" s="8">
         <v>38</v>
@@ -1691,7 +1705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="A41" s="15"/>
       <c r="B41" s="8">
         <v>39</v>
@@ -1709,7 +1723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12">
       <c r="A42" s="15"/>
       <c r="B42" s="8">
         <v>40</v>
@@ -1727,7 +1741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12">
       <c r="A43" s="15"/>
       <c r="B43" s="8">
         <v>41</v>
@@ -1748,7 +1762,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:12">
       <c r="A44" s="15"/>
       <c r="B44" s="8">
         <v>42</v>
@@ -1764,7 +1778,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:12">
       <c r="A45" s="15"/>
       <c r="B45" s="8">
         <v>43</v>
@@ -1780,7 +1794,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:12">
       <c r="A46" s="15"/>
       <c r="B46" s="8">
         <v>44</v>
@@ -1796,7 +1810,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12">
       <c r="A47" s="15"/>
       <c r="B47" s="8">
         <v>45</v>
@@ -1812,7 +1826,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:12">
       <c r="A48" s="11" t="s">
         <v>100</v>
       </c>
@@ -2331,7 +2345,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="L28:L33"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="I24:I27"/>
     <mergeCell ref="I28:I33"/>

--- a/Project_related_material/Survey_question.xlsx
+++ b/Project_related_material/Survey_question.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Downloads/Internship_Social_Research_Center/ETC5543_Internship_Project/Project_related_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C1342-1C63-724E-872C-3E837FC691DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5BAB75-50AD-264E-9F91-DE5CD2B36F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{5943BDDB-ED93-E846-BE3D-DAD7E7BA4B5F}"/>
+    <workbookView xWindow="10560" yWindow="-21100" windowWidth="25520" windowHeight="21100" xr2:uid="{5943BDDB-ED93-E846-BE3D-DAD7E7BA4B5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="146">
   <si>
     <t>Question</t>
   </si>
@@ -101,9 +101,6 @@
     <t xml:space="preserve">MULTICULT </t>
   </si>
   <si>
-    <t>To what extent do you agree or disagree that it is a good thing for a sociery to be made up of people from different cultures?</t>
-  </si>
-  <si>
     <t>In the last 12 months, do you feel that you have experienced discrimination or have been treated unfairly by others?</t>
   </si>
   <si>
@@ -111,10 +108,6 @@
   </si>
   <si>
     <t>LETDIE1YG</t>
-  </si>
-  <si>
-    <t>When a person has a disease that cannot be cured, do you think doctors should be alowed 
-by law to end the patient's life by some painless means if the patient and patient's family request it ?</t>
   </si>
   <si>
     <t>LIFE_SATISFACTION</t>
@@ -194,9 +187,6 @@
     <t>"Most people can be trusted" Agree or Disagree</t>
   </si>
   <si>
-    <t xml:space="preserve">DR = IER ? </t>
-  </si>
-  <si>
     <t>INTERNET</t>
   </si>
   <si>
@@ -247,9 +237,6 @@
   </si>
   <si>
     <t>DAILY_SMOKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you smake regularly, that is, at least once a day? </t>
   </si>
   <si>
     <t>CURRENT_SMOKE  =1</t>
@@ -483,6 +470,23 @@
     <t>Logical approach
 Unlikely to have more option 6 i.e. Multiple of 20+ hour per week 
 Also plus # hour of exercise (ACTIVITY)</t>
+  </si>
+  <si>
+    <t>DR = IER ? 
+Bogus item?</t>
+  </si>
+  <si>
+    <t>When a person has a disease that cannot be cured, do you think doctors should be allowed 
+by law to end the patient's life by some painless means if the patient and patient's family request it ?</t>
+  </si>
+  <si>
+    <t>Bogus Item</t>
+  </si>
+  <si>
+    <t>To what extent do you agree or disagree that it is a good thing for a society to be made up of people from different cultures?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you smoke regularly, that is, at least once a day? </t>
   </si>
 </sst>
 </file>
@@ -578,15 +582,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -598,10 +602,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -920,9 +924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1472E0CD-8E26-0240-82E8-7B27A32BF277}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L28" sqref="L28:L33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -957,8 +961,8 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>44</v>
+      <c r="A3" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -977,7 +981,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -995,7 +999,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="18"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -1014,9 +1018,12 @@
       <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="J5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="18"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -1037,7 +1044,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="18"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -1045,7 +1052,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -1055,15 +1062,15 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="18"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1073,15 +1080,15 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="51">
-      <c r="A9" s="18"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1092,16 +1099,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1116,10 +1123,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -1128,16 +1135,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="34">
       <c r="A12" s="16"/>
       <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>12</v>
@@ -1145,8 +1152,8 @@
       <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="J12" t="s">
-        <v>51</v>
+      <c r="J12" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1155,10 +1162,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1166,8 +1173,8 @@
       <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>36</v>
+      <c r="I13" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1176,10 +1183,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1187,7 +1194,7 @@
       <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="16"/>
@@ -1195,10 +1202,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -1206,11 +1213,11 @@
       <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>141</v>
+      <c r="I15" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1219,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -1227,8 +1234,8 @@
       <c r="F16" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="16"/>
@@ -1236,7 +1243,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -1244,8 +1251,8 @@
       <c r="F17" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="16"/>
@@ -1253,7 +1260,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1261,8 +1268,8 @@
       <c r="F18" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="16"/>
@@ -1270,7 +1277,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -1278,8 +1285,8 @@
       <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="16"/>
@@ -1287,7 +1294,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -1295,21 +1302,21 @@
       <c r="F20" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="13" t="s">
-        <v>82</v>
+      <c r="A21" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="B21" s="7">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -1319,15 +1326,15 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="13"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="7">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -1337,15 +1344,15 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="13"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="7">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -1355,15 +1362,15 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="13"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="7">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>8</v>
@@ -1371,20 +1378,20 @@
       <c r="F24" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>142</v>
+      <c r="I24" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="13"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="7">
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -1392,16 +1399,16 @@
       <c r="F25" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="13"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="7">
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E26">
         <v>8</v>
@@ -1409,16 +1416,16 @@
       <c r="F26" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="13"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="7">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -1426,19 +1433,19 @@
       <c r="F27" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="13"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="7">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -1446,26 +1453,26 @@
       <c r="F28" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="10" t="s">
+      <c r="I28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="13"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="7">
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -1473,18 +1480,18 @@
       <c r="F29" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="13"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="7">
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -1492,18 +1499,18 @@
       <c r="F30" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="13"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="7">
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -1511,18 +1518,18 @@
       <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="13"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="7">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -1530,18 +1537,18 @@
       <c r="F32" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="13"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="7">
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -1549,21 +1556,21 @@
       <c r="F33" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="13"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="7">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1571,23 +1578,23 @@
       <c r="F34" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>97</v>
+      <c r="I34" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="13"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="7">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1596,21 +1603,21 @@
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="10"/>
-      <c r="K35" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="13"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="7">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E36">
         <v>8</v>
@@ -1618,44 +1625,44 @@
       <c r="F36" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K36" s="10"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="13"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="7">
         <v>35</v>
       </c>
       <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" t="s">
         <v>73</v>
       </c>
-      <c r="D37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" t="s">
-        <v>76</v>
-      </c>
-      <c r="I37" t="s">
-        <v>77</v>
-      </c>
-      <c r="J37" s="10"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="13"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="7">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E38">
         <v>6</v>
@@ -1664,21 +1671,21 @@
         <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B39" s="8">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -1693,10 +1700,10 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -1711,10 +1718,10 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -1729,10 +1736,10 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E42">
         <v>7</v>
@@ -1747,10 +1754,10 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1758,8 +1765,8 @@
       <c r="F43" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="12" t="s">
-        <v>98</v>
+      <c r="I43" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -1768,7 +1775,7 @@
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1776,7 +1783,7 @@
       <c r="F44" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="10"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="15"/>
@@ -1784,7 +1791,7 @@
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -1792,7 +1799,7 @@
       <c r="F45" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="10"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="15"/>
@@ -1800,7 +1807,7 @@
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -1808,7 +1815,7 @@
       <c r="F46" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="10"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="15"/>
@@ -1816,7 +1823,7 @@
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -1824,20 +1831,20 @@
       <c r="F47" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="10"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="11" t="s">
-        <v>100</v>
+      <c r="A48" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="B48" s="9">
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -1846,22 +1853,22 @@
         <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>105</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>114</v>
+        <v>101</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="11"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="9">
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -1870,20 +1877,20 @@
         <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I49" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="11"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="9">
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1892,20 +1899,20 @@
         <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>106</v>
-      </c>
-      <c r="I50" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="11"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="9">
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E51">
         <v>7</v>
@@ -1914,38 +1921,38 @@
         <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>111</v>
-      </c>
-      <c r="I51" s="10"/>
+        <v>107</v>
+      </c>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="11"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="9">
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="11"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="9">
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -1955,15 +1962,15 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="11"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="9">
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E54">
         <v>5</v>
@@ -1973,51 +1980,51 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="11"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="9">
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E55" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F55" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="11"/>
+      <c r="A56" s="17"/>
       <c r="B56" s="9">
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="11"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="9">
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E57">
         <v>15</v>
@@ -2027,15 +2034,15 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="11"/>
+      <c r="A58" s="17"/>
       <c r="B58" s="9">
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D58" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E58">
         <v>4</v>
@@ -2044,19 +2051,19 @@
         <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="11"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="9">
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D59" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -2065,19 +2072,19 @@
         <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="11"/>
+      <c r="A60" s="17"/>
       <c r="B60" s="9">
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -2087,15 +2094,15 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="11"/>
+      <c r="A61" s="17"/>
       <c r="B61" s="9">
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -2104,19 +2111,19 @@
         <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="11"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="9">
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D62" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -2125,19 +2132,19 @@
         <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="11"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="9">
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E63">
         <v>3</v>
@@ -2146,7 +2153,7 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2346,6 +2353,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="A48:A63"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="K28:K33"/>
     <mergeCell ref="L28:L33"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="I24:I27"/>
@@ -2353,18 +2372,6 @@
     <mergeCell ref="J15:J20"/>
     <mergeCell ref="J24:J27"/>
     <mergeCell ref="J28:J33"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="K28:K33"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="A48:A63"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="I43:I47"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project_related_material/Survey_question.xlsx
+++ b/Project_related_material/Survey_question.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Downloads/Internship_Social_Research_Center/ETC5543_Internship_Project/Project_related_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5BAB75-50AD-264E-9F91-DE5CD2B36F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2077EDD-931C-8B4B-AAA7-537B1E1560B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="-21100" windowWidth="25520" windowHeight="21100" xr2:uid="{5943BDDB-ED93-E846-BE3D-DAD7E7BA4B5F}"/>
+    <workbookView xWindow="0" yWindow="1240" windowWidth="34560" windowHeight="21100" xr2:uid="{5943BDDB-ED93-E846-BE3D-DAD7E7BA4B5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -513,6 +513,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -568,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -606,6 +614,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -924,9 +941,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1472E0CD-8E26-0240-82E8-7B27A32BF277}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24:I27"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1173,7 +1190,7 @@
       <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="20" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1194,7 +1211,7 @@
       <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="16"/>
@@ -1216,7 +1233,7 @@
       <c r="I15" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="19" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1235,7 +1252,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="18"/>
-      <c r="J16" s="11"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="16"/>
@@ -1252,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="I17" s="18"/>
-      <c r="J17" s="11"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="16"/>
@@ -1269,7 +1286,7 @@
         <v>14</v>
       </c>
       <c r="I18" s="18"/>
-      <c r="J18" s="11"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="16"/>
@@ -1286,7 +1303,7 @@
         <v>14</v>
       </c>
       <c r="I19" s="18"/>
-      <c r="J19" s="11"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="16"/>
@@ -1303,7 +1320,7 @@
         <v>14</v>
       </c>
       <c r="I20" s="18"/>
-      <c r="J20" s="11"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="18" t="s">
@@ -1381,7 +1398,7 @@
       <c r="I24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="20" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1400,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="18"/>
-      <c r="J25" s="11"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="18"/>
@@ -1417,7 +1434,7 @@
         <v>14</v>
       </c>
       <c r="I26" s="18"/>
-      <c r="J26" s="11"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="18"/>
@@ -1434,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="I27" s="18"/>
-      <c r="J27" s="11"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="18"/>
@@ -1453,10 +1470,10 @@
       <c r="F28" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="21" t="s">
         <v>136</v>
       </c>
       <c r="K28" s="10" t="s">
@@ -1480,8 +1497,8 @@
       <c r="F29" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
     </row>
@@ -1499,8 +1516,8 @@
       <c r="F30" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
@@ -1518,8 +1535,8 @@
       <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
     </row>
@@ -1537,8 +1554,8 @@
       <c r="F32" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
     </row>
@@ -1556,8 +1573,8 @@
       <c r="F33" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
     </row>
@@ -1748,7 +1765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" ht="16" customHeight="1">
       <c r="A43" s="15"/>
       <c r="B43" s="8">
         <v>41</v>
@@ -1765,7 +1782,7 @@
       <c r="F43" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="19" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1783,7 +1800,7 @@
       <c r="F44" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="11"/>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="15"/>
@@ -1799,7 +1816,7 @@
       <c r="F45" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="11"/>
+      <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="15"/>
@@ -1815,7 +1832,7 @@
       <c r="F46" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="11"/>
+      <c r="I46" s="18"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="15"/>
@@ -1831,7 +1848,7 @@
       <c r="F47" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="11"/>
+      <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="17" t="s">
@@ -1855,7 +1872,7 @@
       <c r="G48" t="s">
         <v>101</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="21" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1879,7 +1896,7 @@
       <c r="G49" t="s">
         <v>102</v>
       </c>
-      <c r="I49" s="11"/>
+      <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17"/>
@@ -1901,7 +1918,7 @@
       <c r="G50" t="s">
         <v>102</v>
       </c>
-      <c r="I50" s="11"/>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="17"/>
@@ -1923,7 +1940,7 @@
       <c r="G51" t="s">
         <v>107</v>
       </c>
-      <c r="I51" s="11"/>
+      <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17"/>
